--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmdc\Google Drive\PPE\Cenergia - compartilhadas\Projeto EPS (2019-2020)\Variáveis EPS Brasil\Eduardo_Elec_High_2020_02_02\revisão 29 de abril de 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45682398-34F1-4D3F-BCD5-8BEEED737A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -25,7 +24,7 @@
   <definedNames>
     <definedName name="LocalAreaOptions">[1]Lists!$B$11:$B$21</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>natural gas nonpeaker</t>
   </si>
@@ -72,18 +71,9 @@
     <t>PTCF Peak Time Capacity Factors</t>
   </si>
   <si>
-    <t>Summer or Winter Peaking?</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Source: </t>
   </si>
   <si>
-    <t>&lt;needs additional information if winter</t>
-  </si>
-  <si>
     <t>lignite</t>
   </si>
   <si>
@@ -105,9 +95,6 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Peak Time Capacity Factors (dimensionless)</t>
-  </si>
-  <si>
     <t>http://www.epe.gov.br/sites-pt/publicacoes-dados-abertos/publicacoes/PublicacoesArquivos/publicacao-423/topico-482/NT_CME_EPE_DEE-NT-057_2019-r0.pdf</t>
   </si>
   <si>
@@ -193,12 +180,21 @@
   </si>
   <si>
     <t>We take the average between different regions, with a higher weight in the case of wind in Northeast</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (peak time capacity factors)</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>winter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -272,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,38 +283,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -347,34 +322,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -385,15 +357,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Hiperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 6" xfId="1"/>
+    <cellStyle name="Table title" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -890,142 +868,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="134.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="16"/>
-    <col min="5" max="5" width="49.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="37.77734375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="47.6640625" style="7" customWidth="1"/>
-    <col min="9" max="11" width="8.77734375" style="7"/>
+    <col min="2" max="2" width="134.19921875" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="13"/>
+    <col min="5" max="5" width="49.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="37.796875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="47.6640625" style="5" customWidth="1"/>
+    <col min="9" max="11" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="19"/>
-      <c r="H12" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="16"/>
+      <c r="H12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="10"/>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A38" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Summer, Winter"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{73EF5FC9-A1E9-4C67-ACDD-25478EAF3849}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1033,280 +989,280 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39FA55C-C114-4DDD-A927-0B05BD7F912E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0.38</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0.38</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.36</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0.37</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0.44</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0.47</v>
-      </c>
-      <c r="I2" s="13">
+      <c r="B4" s="10">
         <v>0.5</v>
       </c>
-      <c r="J2" s="13">
-        <v>0.53</v>
-      </c>
-      <c r="K2" s="13">
+      <c r="C4" s="10">
         <v>0.5</v>
       </c>
-      <c r="L2" s="13">
-        <v>0.44</v>
-      </c>
-      <c r="M2" s="13">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="K3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="L3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="D4" s="10">
         <v>0.5</v>
       </c>
-      <c r="C4" s="13">
+      <c r="E4" s="10">
         <v>0.5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="F4" s="10">
         <v>0.5</v>
       </c>
-      <c r="E4" s="13">
+      <c r="G4" s="10">
         <v>0.5</v>
       </c>
-      <c r="F4" s="13">
+      <c r="H4" s="10">
         <v>0.5</v>
       </c>
-      <c r="G4" s="13">
+      <c r="I4" s="10">
         <v>0.5</v>
       </c>
-      <c r="H4" s="13">
+      <c r="J4" s="10">
         <v>0.5</v>
       </c>
-      <c r="I4" s="13">
+      <c r="K4" s="10">
         <v>0.5</v>
       </c>
-      <c r="J4" s="13">
+      <c r="L4" s="10">
         <v>0.5</v>
       </c>
-      <c r="K4" s="13">
+      <c r="M4" s="10">
         <v>0.5</v>
       </c>
-      <c r="L4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="9">
         <f>0.66666*B4+0.33333*B3</f>
         <v>0.38332949999999999</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <f t="shared" ref="C5:M5" si="0">0.66666*C4+0.33333*C3</f>
         <v>0.38332949999999999</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="9">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="9">
         <f t="shared" si="0"/>
         <v>0.38332949999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="9">
         <f>B5*B2</f>
         <v>0.14566520999999999</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <f t="shared" ref="C6:M6" si="1">C5*C2</f>
         <v>0.14566520999999999</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <f t="shared" si="1"/>
         <v>0.13799861999999999</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <f t="shared" si="1"/>
         <v>0.141831915</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>0.15333180000000002</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <f t="shared" si="1"/>
         <v>0.16866497999999999</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <f t="shared" si="1"/>
         <v>0.18016486499999998</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <f t="shared" si="1"/>
         <v>0.19166474999999999</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="9">
         <f t="shared" si="1"/>
         <v>0.20316463500000001</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="9">
         <f t="shared" si="1"/>
         <v>0.19166474999999999</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="9">
         <f t="shared" si="1"/>
         <v>0.16866497999999999</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="9">
         <f t="shared" si="1"/>
         <v>0.15333180000000002</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="11">
         <f>AVERAGE(B6:M6)</f>
         <v>0.16515112624999997</v>
       </c>
@@ -1319,62 +1275,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484651EB-36A3-4482-99E0-8CBE9CDDEDA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>0.46</v>
@@ -1413,9 +1369,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>0.2</v>
@@ -1454,9 +1410,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>0.49</v>
@@ -1495,107 +1451,107 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="12">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="9">
         <f>0.66666*D4+0.33333*D3</f>
         <v>0.3933294</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <f t="shared" ref="E5:O5" si="0">0.66666*E4+0.33333*E3</f>
         <v>0.3699963</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>0.3133302</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>0.2799972</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>0.35666310000000001</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <f t="shared" si="0"/>
         <v>0.43332900000000002</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
         <v>0.48999510000000002</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>0.52332809999999996</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="9">
         <f t="shared" si="0"/>
         <v>0.49999500000000008</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="9">
         <f t="shared" si="0"/>
         <v>0.46332869999999998</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="9">
         <f t="shared" si="0"/>
         <v>0.44999549999999999</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="9">
         <f t="shared" si="0"/>
         <v>0.43332900000000008</v>
       </c>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="12">
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D6" s="9">
         <f>D5*D2</f>
         <v>0.18093152400000001</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <f t="shared" ref="E6:O6" si="1">E5*E2</f>
         <v>0.162798372</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>0.119065476</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <f t="shared" si="1"/>
         <v>0.11759882399999999</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <f t="shared" si="1"/>
         <v>0.171198288</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <f t="shared" si="1"/>
         <v>0.24699752999999999</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="9">
         <f t="shared" si="1"/>
         <v>0.29889701099999999</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="9">
         <f t="shared" si="1"/>
         <v>0.37679623199999995</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="9">
         <f t="shared" si="1"/>
         <v>0.39999600000000007</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="9">
         <f t="shared" si="1"/>
         <v>0.35212981199999999</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="9">
         <f t="shared" si="1"/>
         <v>0.28799712</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="9">
         <f t="shared" si="1"/>
         <v>0.23833095000000007</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="11">
         <f>AVERAGE(D6:O6)</f>
         <v>0.24606142824999999</v>
       </c>
@@ -1607,56 +1563,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214BA780-13B0-4C49-B4ED-7A4C1E735737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B2">
         <v>0.25</v>
@@ -1695,117 +1651,117 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>0.25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0.25</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>0.24</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.22</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>0.24</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>0.27</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>0.22</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>0.25</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>0.27</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>0.26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <f t="shared" ref="B4:M4" si="0">AVERAGE(B2:B3)</f>
         <v>0.25</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <f t="shared" si="0"/>
         <v>0.255</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>0.245</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>0.23499999999999999</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <f t="shared" si="0"/>
         <v>0.245</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <f t="shared" si="0"/>
         <v>0.23499999999999999</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <f t="shared" si="0"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="9">
         <f t="shared" si="0"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="9">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="9">
         <f t="shared" si="0"/>
         <v>0.255</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="11">
         <f>AVERAGE(B4:M4)</f>
         <v>0.25166666666666671</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
@@ -1815,69 +1771,95 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.19921875" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="3">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C17" si="0">B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <f>'Onshore wind'!N6</f>
         <v>0.16515112624999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16515112624999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1885,90 +1867,133 @@
         <f>'Solar PV'!N4</f>
         <v>0.25166666666666671</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25166666666666671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
         <f>B2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <f>'Offshore wind'!$P$6</f>
         <v>0.24606142824999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24606142824999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <f>B11</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <f>B11</f>
         <v>1</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
